--- a/data/trans_orig/P70B_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C940FCBA-9CFE-48B1-913E-64920AC8B3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA5361A-8EB9-4157-8D99-73EBFC4CF0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0651CB7-7614-4A3F-BAB2-7549952EA5A3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB3C9F7F-B174-497F-9FCF-20C3F88F5A98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>7,33%</t>
@@ -86,7 +86,7 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>12,34%</t>
+    <t>12,9%</t>
   </si>
   <si>
     <t>6,75%</t>
@@ -95,7 +95,7 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>9,45%</t>
+    <t>9,07%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
@@ -104,28 +104,28 @@
     <t>11,73%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>Bien o suficientemente informado</t>
@@ -134,28 +134,28 @@
     <t>38,36%</t>
   </si>
   <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>Bastante o muy bien informado</t>
@@ -164,349 +164,358 @@
     <t>43,39%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
   </si>
   <si>
     <t>43,54%</t>
   </si>
   <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
     <t>39,5%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
+    <t>5,79%</t>
+  </si>
+  <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D72AD2A-BF55-4671-8E37-4C89BE887130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF840BB4-4BC1-484E-AC2B-4D0A8B2C6208}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1431,7 +1440,7 @@
         <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>686351</v>
+        <v>686350</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1533,7 +1542,7 @@
         <v>1608</v>
       </c>
       <c r="N13" s="7">
-        <v>1678956</v>
+        <v>1678955</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1625,13 +1634,13 @@
         <v>34631</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>57</v>
@@ -1640,13 +1649,13 @@
         <v>58838</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1670,13 @@
         <v>129321</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -1676,7 +1685,7 @@
         <v>112437</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>110</v>
@@ -1828,16 +1837,16 @@
         <v>73</v>
       </c>
       <c r="I19" s="7">
-        <v>77508</v>
+        <v>77507</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -1846,13 +1855,13 @@
         <v>141665</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1876,13 @@
         <v>191827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -1882,13 +1891,13 @@
         <v>167976</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>340</v>
@@ -1897,13 +1906,13 @@
         <v>359803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1927,13 @@
         <v>724712</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>378</v>
@@ -1933,13 +1942,13 @@
         <v>392253</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1075</v>
@@ -1948,13 +1957,13 @@
         <v>1116965</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,28 +1978,28 @@
         <v>893658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>358</v>
       </c>
       <c r="I22" s="7">
-        <v>371279</v>
+        <v>371278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>1214</v>
@@ -1999,13 +2008,13 @@
         <v>1264937</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2041,7 @@
         <v>967</v>
       </c>
       <c r="I23" s="7">
-        <v>1009016</v>
+        <v>1009015</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2061,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA5361A-8EB9-4157-8D99-73EBFC4CF0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36D87280-3358-4DB5-B728-2AE628E8F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB3C9F7F-B174-497F-9FCF-20C3F88F5A98}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{406572FB-B5CE-42CF-AC19-B929FBC2D7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según el nivel de informado que están con respecto a los riesgos que implican el uso de los materiales, instrumentos o productos que utiliza en su trabajo en 2007 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -74,346 +74,340 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>Mal o insuficientemente informado</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>Bien o suficientemente informado</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>Bastante o muy bien informado</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>Mal o insuficientemente informado</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>Bien o suficientemente informado</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>Bastante o muy bien informado</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>39,5%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>57,79%</t>
   </si>
   <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
   </si>
   <si>
     <t>41,64%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>51,07%</t>
   </si>
   <si>
-    <t>47,05%</t>
-  </si>
-  <si>
     <t>55,02%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>4,38%</t>
@@ -422,16 +416,16 @@
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,17%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>5,79%</t>
@@ -440,82 +434,79 @@
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF840BB4-4BC1-484E-AC2B-4D0A8B2C6208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20F18BD-1A07-4A97-BA32-2D7AF4849F8A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1440,7 @@
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,13 +1455,13 @@
         <v>501290</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>181</v>
@@ -1479,13 +1470,13 @@
         <v>187776</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>656</v>
@@ -1494,13 +1485,13 @@
         <v>689067</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1568,13 +1559,13 @@
         <v>14801</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1583,13 +1574,13 @@
         <v>19044</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -1598,13 +1589,13 @@
         <v>33845</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,13 +1610,13 @@
         <v>24207</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -1634,13 +1625,13 @@
         <v>34631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>57</v>
@@ -1649,13 +1640,13 @@
         <v>58838</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,13 +1661,13 @@
         <v>129321</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -1685,13 +1676,13 @@
         <v>112437</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>232</v>
@@ -1700,13 +1691,13 @@
         <v>241757</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1712,13 @@
         <v>230499</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -1736,13 +1727,13 @@
         <v>118530</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>334</v>
@@ -1751,13 +1742,13 @@
         <v>349029</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,28 +1816,28 @@
         <v>64157</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
       </c>
       <c r="I19" s="7">
-        <v>77507</v>
+        <v>77508</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -1855,13 +1846,13 @@
         <v>141665</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1867,13 @@
         <v>191827</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -1891,13 +1882,13 @@
         <v>167976</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>340</v>
@@ -1906,13 +1897,13 @@
         <v>359803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1918,13 @@
         <v>724712</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>378</v>
@@ -1942,13 +1933,13 @@
         <v>392253</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>1075</v>
@@ -1957,13 +1948,13 @@
         <v>1116965</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,28 +1969,28 @@
         <v>893658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>358</v>
       </c>
       <c r="I22" s="7">
-        <v>371278</v>
+        <v>371279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>1214</v>
@@ -2008,13 +1999,13 @@
         <v>1264937</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,7 +2032,7 @@
         <v>967</v>
       </c>
       <c r="I23" s="7">
-        <v>1009015</v>
+        <v>1009016</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2070,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36D87280-3358-4DB5-B728-2AE628E8F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A842D412-CC88-4A71-846C-E592CE5C44CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{406572FB-B5CE-42CF-AC19-B929FBC2D7F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE0750D3-3028-422C-A445-E56C132DCBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>Mal o insuficientemente informado</t>
@@ -104,370 +104,370 @@
     <t>11,73%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>Bien o suficientemente informado</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>Bastante o muy bien informado</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>Bien o suficientemente informado</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>Bastante o muy bien informado</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>40,73%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>35,83%</t>
+    <t>35,89%</t>
   </si>
   <si>
     <t>41,98%</t>
@@ -476,37 +476,37 @@
     <t>38,74%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20F18BD-1A07-4A97-BA32-2D7AF4849F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D286D-29CF-4482-9B76-1B7C8FE3E44D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1431,7 +1431,7 @@
         <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>686350</v>
+        <v>686351</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1440,7 +1440,7 @@
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,13 +1455,13 @@
         <v>501290</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>181</v>
@@ -1470,13 +1470,13 @@
         <v>187776</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>656</v>
@@ -1485,13 +1485,13 @@
         <v>689067</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,7 +1533,7 @@
         <v>1608</v>
       </c>
       <c r="N13" s="7">
-        <v>1678955</v>
+        <v>1678956</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1559,13 +1559,13 @@
         <v>14801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1574,13 +1574,13 @@
         <v>19044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -1589,13 +1589,13 @@
         <v>33845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1610,13 @@
         <v>24207</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -1625,13 +1625,13 @@
         <v>34631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>57</v>
@@ -1640,13 +1640,13 @@
         <v>58838</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1661,13 @@
         <v>129321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -1676,13 +1676,13 @@
         <v>112437</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>232</v>
@@ -1691,13 +1691,13 @@
         <v>241757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1712,13 @@
         <v>230499</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -1727,13 +1727,13 @@
         <v>118530</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>334</v>
@@ -1742,13 +1742,13 @@
         <v>349029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1816,13 @@
         <v>64157</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -1831,13 +1831,13 @@
         <v>77508</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -1846,10 +1846,10 @@
         <v>141665</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>130</v>
@@ -1867,13 +1867,13 @@
         <v>191827</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -1882,13 +1882,13 @@
         <v>167976</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>340</v>
@@ -1897,7 +1897,7 @@
         <v>359803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>137</v>

--- a/data/trans_orig/P70B_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A842D412-CC88-4A71-846C-E592CE5C44CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8300185-FD38-43F4-B59C-C4E4B2A3105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE0750D3-3028-422C-A445-E56C132DCBAC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7C6F6B18-FF4A-47FD-8BC8-F2237EC663A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D286D-29CF-4482-9B76-1B7C8FE3E44D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE45410D-8B0E-4AB0-830D-11A59E9BA3C0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1431,7 +1431,7 @@
         <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>686351</v>
+        <v>686350</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1533,7 +1533,7 @@
         <v>1608</v>
       </c>
       <c r="N13" s="7">
-        <v>1678956</v>
+        <v>1678955</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1828,7 +1828,7 @@
         <v>73</v>
       </c>
       <c r="I19" s="7">
-        <v>77508</v>
+        <v>77507</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -1981,7 +1981,7 @@
         <v>358</v>
       </c>
       <c r="I22" s="7">
-        <v>371279</v>
+        <v>371278</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>151</v>
@@ -2032,7 +2032,7 @@
         <v>967</v>
       </c>
       <c r="I23" s="7">
-        <v>1009016</v>
+        <v>1009015</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
